--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MINNESOTA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MINNESOTA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D988"/>
+  <dimension ref="A1:D982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C6">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C48">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C81">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C84">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C93">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C94">
@@ -1808,7 +1808,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C109">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2085,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="D129">
-        <v>0.009313367421475529</v>
+        <v>0.009313367421475528</v>
       </c>
     </row>
     <row r="130">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C134">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C145">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C152">
@@ -2473,12 +2473,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C159">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C165">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C169">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C176">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C180">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C187">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C193">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C207">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C211">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C221">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C228">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C236">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C243">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C247">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C251">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C252">
@@ -3715,7 +3715,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C253">
@@ -3754,7 +3754,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C256">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C257">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C258">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C259">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C261">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C262">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C263">
@@ -3858,7 +3858,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C264">
@@ -3910,7 +3910,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C268">
@@ -3923,7 +3923,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C269">
@@ -3962,7 +3962,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3975,7 +3975,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C273">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C280">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C282">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C283">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C285">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C305">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C318">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C320">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C326">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C332">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C335">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C344">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C350">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C351">
@@ -5077,7 +5077,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5090,7 +5090,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C358">
@@ -5155,7 +5155,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C363">
@@ -5272,7 +5272,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C372">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C375">
@@ -5363,7 +5363,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C379">
@@ -5441,7 +5441,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C385">
@@ -5480,7 +5480,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C388">
@@ -5493,7 +5493,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C389">
@@ -5519,7 +5519,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C391">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C394">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C395">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C398">
@@ -5623,7 +5623,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C399">
@@ -5662,7 +5662,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C402">
@@ -5727,7 +5727,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C407">
@@ -5779,7 +5779,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C411">
@@ -6395,7 +6395,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C458">
@@ -6660,7 +6660,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C478">
@@ -6719,7 +6719,7 @@
         <v>51</v>
       </c>
       <c r="D482">
-        <v>0.009313367421475529</v>
+        <v>0.009313367421475528</v>
       </c>
     </row>
     <row r="483">
@@ -6751,7 +6751,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C485">
@@ -6829,7 +6829,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C491">
@@ -6842,7 +6842,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C492">
@@ -6920,7 +6920,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C498">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C500">
@@ -7042,7 +7042,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C507">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C524">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C526">
@@ -7338,7 +7338,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C529">
@@ -7377,7 +7377,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C532">
@@ -7390,7 +7390,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C533">
@@ -7403,7 +7403,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C534">
@@ -7416,7 +7416,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C535">
@@ -7494,7 +7494,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C541">
@@ -7520,7 +7520,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C543">
@@ -7533,7 +7533,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C544">
@@ -7546,7 +7546,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C545">
@@ -7689,7 +7689,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C556">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C628">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C629">
@@ -8651,7 +8651,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C630">
@@ -8664,7 +8664,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C631">
@@ -8677,7 +8677,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C632">
@@ -8690,7 +8690,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C633">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C634">
@@ -8716,7 +8716,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C635">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C636">
@@ -8890,7 +8890,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C648">
@@ -8942,7 +8942,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C652">
@@ -9046,7 +9046,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C660">
@@ -9085,7 +9085,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C663">
@@ -9098,7 +9098,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C664">
@@ -9280,7 +9280,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C678">
@@ -9293,7 +9293,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C679">
@@ -9332,7 +9332,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C682">
@@ -9345,7 +9345,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C683">
@@ -9384,7 +9384,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C686">
@@ -9514,7 +9514,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C696">
@@ -9631,7 +9631,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C705">
@@ -9670,7 +9670,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C708">
@@ -9696,7 +9696,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C710">
@@ -9787,7 +9787,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C717">
@@ -9800,7 +9800,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C718">
@@ -9852,7 +9852,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C722">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C742">
@@ -10130,7 +10130,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C743">
@@ -10182,7 +10182,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C747">
@@ -10195,7 +10195,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C748">
@@ -10234,7 +10234,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C751">
@@ -10260,7 +10260,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C753">
@@ -10439,7 +10439,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C766">
@@ -10517,7 +10517,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C772">
@@ -10569,7 +10569,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C776">
@@ -10608,7 +10608,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C779">
@@ -10686,7 +10686,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C785">
@@ -10699,7 +10699,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C786">
@@ -10712,7 +10712,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C787">
@@ -11034,7 +11034,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C811">
@@ -11439,7 +11439,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C841">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C843">
@@ -11478,7 +11478,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C844">
@@ -11639,7 +11639,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C856">
@@ -11717,7 +11717,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C862">
@@ -11860,7 +11860,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C873">
@@ -12003,7 +12003,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C884">
@@ -12016,7 +12016,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C885">
@@ -12029,7 +12029,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C886">
@@ -12055,7 +12055,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C888">
@@ -12146,7 +12146,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C895">
@@ -12211,7 +12211,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C900">
@@ -12367,7 +12367,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C912">
@@ -12380,7 +12380,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C913">
@@ -12432,7 +12432,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C917">
@@ -12484,7 +12484,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C921">
@@ -12536,7 +12536,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C925">
@@ -12731,7 +12731,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C940">
@@ -13066,7 +13066,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C965">
@@ -13105,7 +13105,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C968">
@@ -13183,7 +13183,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C974">
@@ -13196,7 +13196,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C975">
@@ -13295,41 +13295,6 @@
       </c>
       <c r="D982">
         <v>1</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
